--- a/Simulation Results/tau2=0.5.xlsx
+++ b/Simulation Results/tau2=0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhchy\Dropbox\2019 Spring\Meta\Code\Results\Testing\All_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DB64E6-28AA-484B-A01E-BDC27D3F013E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967630E-855C-4493-B00F-98FB0F0868B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{552E3D84-A4B4-447B-BED5-F7D12293AA94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{552E3D84-A4B4-447B-BED5-F7D12293AA94}"/>
   </bookViews>
   <sheets>
     <sheet name="K=10" sheetId="1" r:id="rId1"/>
@@ -11214,6 +11214,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -11227,32 +11253,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21801,6 +21801,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -21814,32 +21840,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21849,8 +21849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B50BA1-EE21-42C2-9585-3464A8CF9F4B}">
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:AG109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26077,91 +26077,91 @@
         <v>35</v>
       </c>
       <c r="E45" s="12">
+        <v>0.998</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.995</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
+      <c r="O45" s="7">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F45" s="7">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="J45" s="7">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="N45" s="7">
-        <v>1</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0.97</v>
-      </c>
       <c r="P45" s="7">
-        <v>0.97799999999999998</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="Q45" s="7">
-        <v>0.97799999999999998</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="R45" s="7">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="S45" s="7">
-        <v>0.98699999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="T45" s="7">
-        <v>0.98899999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="U45" s="7">
-        <v>0.98899999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="V45" s="7">
-        <v>0.96899999999999997</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="W45" s="7">
-        <v>0.98799999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="X45" s="7">
-        <v>0.98799999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="Y45" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="AA45" s="7">
         <v>0.98</v>
       </c>
-      <c r="Z45" s="7">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="AA45" s="7">
-        <v>0.96099999999999997</v>
-      </c>
       <c r="AB45" s="7">
-        <v>0.76300000000000001</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="AC45" s="7">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AD45" s="7">
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AE45" s="7">
-        <v>0.79800000000000004</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="AF45" s="7">
-        <v>0.82699999999999996</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="AG45" s="7">
-        <v>0.98499999999999999</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
@@ -27225,76 +27225,76 @@
         <v>35</v>
       </c>
       <c r="E57" s="12">
-        <v>0.91600000000000004</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="F57" s="7">
-        <v>0.91600000000000004</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="G57" s="7">
-        <v>0.85699999999999998</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H57" s="7">
-        <v>0.91600000000000004</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="I57" s="7">
-        <v>0.91500000000000004</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="J57" s="7">
-        <v>0.90500000000000003</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="K57" s="7">
-        <v>1</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="L57" s="7">
-        <v>0.83599999999999997</v>
+        <v>0.92</v>
       </c>
       <c r="M57" s="7">
-        <v>0.88200000000000001</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="N57" s="7">
-        <v>0.76400000000000001</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="O57" s="7">
-        <v>0.877</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="P57" s="7">
-        <v>0.83399999999999996</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="Q57" s="7">
-        <v>0.83399999999999996</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="R57" s="7">
-        <v>0.90700000000000003</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="S57" s="7">
-        <v>0.91200000000000003</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="T57" s="7">
-        <v>0.90900000000000003</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="U57" s="7">
-        <v>0.91100000000000003</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="V57" s="7">
-        <v>0.89500000000000002</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="W57" s="7">
-        <v>0.90800000000000003</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="X57" s="7">
-        <v>0.90800000000000003</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="Y57" s="7">
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="Z57" s="7">
-        <v>0.83699999999999997</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="AA57" s="7">
-        <v>0.86599999999999999</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="AB57" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="AC57" s="7">
         <v>0</v>
@@ -27303,13 +27303,13 @@
         <v>0</v>
       </c>
       <c r="AE57" s="7">
-        <v>0.63</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="AF57" s="7">
-        <v>0.66500000000000004</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="AG57" s="7">
-        <v>0.90800000000000003</v>
+        <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
@@ -28373,64 +28373,64 @@
         <v>35</v>
       </c>
       <c r="E69" s="12">
-        <v>0.64600000000000002</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="F69" s="7">
-        <v>0.64500000000000002</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="G69" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="H69" s="7">
-        <v>0.64500000000000002</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="I69" s="7">
-        <v>0.64500000000000002</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="J69" s="7">
-        <v>0.65800000000000003</v>
+        <v>0.747</v>
       </c>
       <c r="K69" s="7">
         <v>1</v>
       </c>
       <c r="L69" s="7">
-        <v>0.53300000000000003</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="M69" s="7">
-        <v>0.65100000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="N69" s="7">
-        <v>0.03</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="O69" s="7">
-        <v>0.65</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="P69" s="7">
-        <v>0.66200000000000003</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="Q69" s="7">
-        <v>0.66300000000000003</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="R69" s="7">
-        <v>0.51500000000000001</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="S69" s="7">
-        <v>0.53900000000000003</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="T69" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.59</v>
       </c>
       <c r="U69" s="7">
-        <v>0.52100000000000002</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="V69" s="7">
-        <v>0.70399999999999996</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="W69" s="7">
-        <v>0.60899999999999999</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="X69" s="7">
-        <v>0.60899999999999999</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="Y69" s="7">
         <v>1</v>
@@ -28439,25 +28439,25 @@
         <v>1</v>
       </c>
       <c r="AA69" s="7">
-        <v>0.69</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="AB69" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC69" s="7">
         <v>1E-3</v>
       </c>
       <c r="AD69" s="7">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="AE69" s="7">
-        <v>0.27600000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="AF69" s="7">
-        <v>0.38700000000000001</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="AG69" s="7">
-        <v>0.63800000000000001</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
@@ -29523,91 +29523,91 @@
         <v>35</v>
       </c>
       <c r="E81" s="12">
-        <v>0.621</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="F81" s="7">
-        <v>0.622</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="G81" s="7">
-        <v>0.46899999999999997</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="H81" s="7">
-        <v>0.621</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="I81" s="7">
-        <v>0.63900000000000001</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="J81" s="7">
-        <v>0.622</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="K81" s="7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="L81" s="7">
-        <v>0.624</v>
+        <v>0.83</v>
       </c>
       <c r="M81" s="7">
-        <v>0.67700000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="N81" s="7">
-        <v>0.86</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="O81" s="7">
-        <v>0.67500000000000004</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="P81" s="7">
-        <v>0.63500000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="Q81" s="7">
-        <v>0.63900000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="R81" s="7">
-        <v>0.46800000000000003</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="S81" s="7">
-        <v>0.53900000000000003</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="T81" s="7">
-        <v>0.47099999999999997</v>
+        <v>0.83</v>
       </c>
       <c r="U81" s="7">
-        <v>0.48299999999999998</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="V81" s="7">
-        <v>0.77300000000000002</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="W81" s="7">
-        <v>0.6</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="X81" s="7">
-        <v>0.59899999999999998</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="Y81" s="7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="Z81" s="7">
-        <v>1</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="AA81" s="7">
-        <v>0.69</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="AB81" s="7">
-        <v>2E-3</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AC81" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="AD81" s="7">
         <v>0</v>
       </c>
-      <c r="AD81" s="7">
-        <v>1E-3</v>
-      </c>
       <c r="AE81" s="7">
-        <v>0.28299999999999997</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="AF81" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="AG81" s="7">
-        <v>0.64900000000000002</v>
+        <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
@@ -30671,91 +30671,91 @@
         <v>35</v>
       </c>
       <c r="E93" s="12">
-        <v>0.89900000000000002</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="F93" s="7">
-        <v>0.89900000000000002</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="G93" s="7">
-        <v>0.84799999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="H93" s="7">
-        <v>0.89900000000000002</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="I93" s="7">
-        <v>0.871</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="J93" s="7">
-        <v>0.89800000000000002</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K93" s="7">
-        <v>0.83199999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="L93" s="7">
-        <v>0.83199999999999996</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="M93" s="7">
-        <v>0.89300000000000002</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N93" s="7">
-        <v>0.64800000000000002</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="O93" s="7">
-        <v>0.89300000000000002</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="P93" s="7">
-        <v>0.82099999999999995</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="Q93" s="7">
-        <v>0.82299999999999995</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="R93" s="7">
-        <v>0.89200000000000002</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="S93" s="7">
-        <v>0.89900000000000002</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="T93" s="7">
-        <v>0.89300000000000002</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="U93" s="7">
-        <v>0.89300000000000002</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="V93" s="7">
-        <v>0.89900000000000002</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="W93" s="7">
-        <v>0.89800000000000002</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="X93" s="7">
-        <v>0.89800000000000002</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="Y93" s="7">
-        <v>0.83299999999999996</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="Z93" s="7">
-        <v>0.84099999999999997</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="AA93" s="7">
-        <v>0.86799999999999999</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="AB93" s="7">
-        <v>0.11799999999999999</v>
+        <v>0.621</v>
       </c>
       <c r="AC93" s="7">
         <v>0</v>
       </c>
       <c r="AD93" s="7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE93" s="7">
-        <v>0.625</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="AF93" s="7">
-        <v>0.64500000000000002</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AG93" s="7">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
@@ -31819,91 +31819,91 @@
         <v>35</v>
       </c>
       <c r="E105" s="12">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
       <c r="F105" s="7">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.96699999999999997</v>
+        <v>0.995</v>
       </c>
       <c r="H105" s="7">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
       <c r="I105" s="7">
-        <v>0.40799999999999997</v>
+        <v>0.45</v>
       </c>
       <c r="J105" s="7">
-        <v>0.98899999999999999</v>
+        <v>1</v>
       </c>
       <c r="K105" s="7">
-        <v>0.98299999999999998</v>
+        <v>0.998</v>
       </c>
       <c r="L105" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="M105" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="N105" s="7">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="P105" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="R105" s="7">
+        <v>1</v>
+      </c>
+      <c r="S105" s="7">
+        <v>1</v>
+      </c>
+      <c r="T105" s="7">
+        <v>1</v>
+      </c>
+      <c r="U105" s="7">
+        <v>1</v>
+      </c>
+      <c r="V105" s="7">
+        <v>1</v>
+      </c>
+      <c r="W105" s="7">
+        <v>1</v>
+      </c>
+      <c r="X105" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="Z105" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="AA105" s="7">
+        <v>0.999</v>
+      </c>
+      <c r="AB105" s="7">
         <v>0.98399999999999999</v>
       </c>
-      <c r="M105" s="7">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="N105" s="7">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="O105" s="7">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="P105" s="7">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="Q105" s="7">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="R105" s="7">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="S105" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="T105" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="U105" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="V105" s="7">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="W105" s="7">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="X105" s="7">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="Y105" s="7">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="Z105" s="7">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="AA105" s="7">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="AB105" s="7">
-        <v>0.79700000000000004</v>
-      </c>
       <c r="AC105" s="7">
-        <v>0</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AD105" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="AE105" s="7">
-        <v>0.80300000000000005</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="AF105" s="7">
-        <v>0.85399999999999998</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="AG105" s="7">
-        <v>0.98799999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.3">
@@ -32388,6 +32388,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A74:A109"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="A38:A73"/>
     <mergeCell ref="B38:B49"/>
     <mergeCell ref="C38:C41"/>
@@ -32401,32 +32427,6 @@
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C66:C69"/>
     <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B98:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
